--- a/src/test/resources/Documents/3965/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/3965/Actual/JobPlanning.xlsx
@@ -65,29 +65,29 @@
     <t>Plate - Sheet  2p</t>
   </si>
   <si>
+    <t>Plate burn</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Plate Making</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Not allocated</t>
+  </si>
+  <si>
     <t>OKTP</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Ok to Plate</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Not allocated</t>
   </si>
   <si>
     <t>Ok to Plate
 Integration Validation</t>
-  </si>
-  <si>
-    <t>Plate burn</t>
-  </si>
-  <si>
-    <t>Plate Making</t>
   </si>
   <si>
     <t>Sheet  2p</t>
@@ -966,10 +966,10 @@
         <v>18</v>
       </c>
       <c r="O2" t="s" s="16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s" s="17">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -977,13 +977,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s" s="19">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="21">
         <v>23</v>
-      </c>
-      <c r="C3" t="s" s="20">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s" s="21">
-        <v>24</v>
       </c>
       <c r="E3" t="s" s="22">
         <v>18</v>
@@ -1016,7 +1016,7 @@
         <v>18</v>
       </c>
       <c r="O3" t="s" s="32">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P3" t="s" s="33">
         <v>24</v>

--- a/src/test/resources/Documents/3965/Actual/JobPlanning.xlsx
+++ b/src/test/resources/Documents/3965/Actual/JobPlanning.xlsx
@@ -65,29 +65,29 @@
     <t>Plate - Sheet  2p</t>
   </si>
   <si>
-    <t>Plate burn</t>
+    <t>OKTP</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Plate Making</t>
+    <t>Ok to Plate</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
     <t>Not allocated</t>
-  </si>
-  <si>
-    <t>OKTP</t>
-  </si>
-  <si>
-    <t>Ok to Plate</t>
   </si>
   <si>
     <t>Ok to Plate
 Integration Validation</t>
+  </si>
+  <si>
+    <t>Plate burn</t>
+  </si>
+  <si>
+    <t>Plate Making</t>
   </si>
   <si>
     <t>Sheet  2p</t>
@@ -966,10 +966,10 @@
         <v>18</v>
       </c>
       <c r="O2" t="s" s="16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P2" t="s" s="17">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -977,13 +977,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s" s="19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="20">
         <v>18</v>
       </c>
       <c r="D3" t="s" s="21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s" s="22">
         <v>18</v>
@@ -1016,7 +1016,7 @@
         <v>18</v>
       </c>
       <c r="O3" t="s" s="32">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s" s="33">
         <v>24</v>
